--- a/excel/testreports/testru.xlsx
+++ b/excel/testreports/testru.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Трейдинг" sheetId="1" r:id="rId1"/>
-    <sheet name="Дивиденды" sheetId="2" r:id="rId5"/>
-    <sheet name="Налоги" sheetId="3" r:id="rId6"/>
+    <sheet name="Детали" sheetId="2" r:id="rId4"/>
+    <sheet name="Дивиденды" sheetId="3" r:id="rId6"/>
+    <sheet name="Налоги" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -18,54 +19,57 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
+    <t>Акция</t>
+  </si>
+  <si>
     <t>Номер Сделки</t>
   </si>
   <si>
     <t>Комиссия Открытия</t>
   </si>
   <si>
+    <t>Валютый Курс UAH на Закрытие</t>
+  </si>
+  <si>
+    <t>Цена Закрытия UAH - Комиссия Закрытия UAH</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Цена Открытия UAH + Комиссия Открытия UAH</t>
+  </si>
+  <si>
+    <t>Доход в Гривне</t>
+  </si>
+  <si>
+    <t>Дата Открытия</t>
+  </si>
+  <si>
+    <t>Цена Открытия</t>
+  </si>
+  <si>
     <t>Валютый Курс UAH на Открытие</t>
   </si>
   <si>
+    <t>Дата Закрытия</t>
+  </si>
+  <si>
     <t>Цена Закрытия</t>
   </si>
   <si>
-    <t>Валютый Курс UAH на Закрытие</t>
-  </si>
-  <si>
-    <t>Дата Открытия</t>
-  </si>
-  <si>
-    <t>Цена Открытия</t>
-  </si>
-  <si>
-    <t>Количество</t>
-  </si>
-  <si>
-    <t>Цена Открытия UAH + Комиссия Открытия UAH</t>
-  </si>
-  <si>
-    <t>Доход в Гривне</t>
-  </si>
-  <si>
-    <t>Акция</t>
-  </si>
-  <si>
-    <t>Дата Закрытия</t>
-  </si>
-  <si>
-    <t>Комиссия Закрытия</t>
-  </si>
-  <si>
-    <t>Цена Закрытия UAH - Комиссия Закрытия UAH</t>
-  </si>
-  <si>
     <t>TEST</t>
   </si>
   <si>
     <t>trade 1</t>
   </si>
   <si>
+    <t>акція TEST 1 шт / куплено 2020-09-03 16:30:00 +0000 UTC/ продано 2020-09-04 16:30:00 +0000 UTC</t>
+  </si>
+  <si>
+    <t>Дата Дивиденда</t>
+  </si>
+  <si>
     <t>Сума Дивиденда</t>
   </si>
   <si>
@@ -78,9 +82,6 @@
     <t>Гривневая Сумма Дивиденда</t>
   </si>
   <si>
-    <t>Дата Дивиденда</t>
-  </si>
-  <si>
     <t>2020-09-03</t>
   </si>
   <si>
@@ -96,10 +97,10 @@
     <t>Военный сбор 1.5%</t>
   </si>
   <si>
+    <t>Облагаемый Дивидендный Доход</t>
+  </si>
+  <si>
     <t>НДФЛ 9%</t>
-  </si>
-  <si>
-    <t>Облагаемый Дивидендный Доход</t>
   </si>
 </sst>
 </file>
@@ -425,72 +426,68 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" max="12" min="12" width="21"/>
-    <col customWidth="true" max="9" min="9" width="16"/>
+    <col customWidth="true" max="8" min="8" width="12"/>
     <col customWidth="true" max="7" min="7" width="16"/>
-    <col customWidth="true" max="1" min="1" width="13.5"/>
-    <col customWidth="true" max="14" min="14" width="17"/>
-    <col customWidth="true" max="13" min="13" width="21"/>
-    <col customWidth="true" max="11" min="11" width="9.5"/>
+    <col customWidth="true" max="6" min="6" width="18"/>
     <col customWidth="true" max="4" min="4" width="12"/>
     <col customWidth="true" max="3" min="3" width="16"/>
-    <col customWidth="true" max="10" min="10" width="18"/>
-    <col customWidth="true" max="8" min="8" width="12"/>
-    <col customWidth="true" max="6" min="6" width="18"/>
+    <col customWidth="true" max="13" min="13" width="17"/>
+    <col customWidth="true" max="12" min="12" width="21"/>
+    <col customWidth="true" max="10" min="10" width="9.5"/>
+    <col customWidth="true" max="11" min="11" width="21"/>
+    <col customWidth="true" max="9" min="9" width="18"/>
     <col customWidth="true" max="5" min="5" width="16"/>
     <col customWidth="true" max="2" min="2" width="15"/>
+    <col customWidth="true" max="1" min="1" width="13.5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>44077.6875</v>
@@ -511,22 +508,19 @@
         <v>101</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>27.6908</v>
       </c>
       <c r="J2">
-        <v>27.6908</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <f>ROUND(((H2*J2)*I2); 2)</f>
       </c>
       <c r="L2">
-        <f>ROUND(((H2*K2-I2)*J2); 2)</f>
+        <f>ROUND(((D2*J2+E2)*F2); 2)</f>
       </c>
       <c r="M2">
-        <f>ROUND(((D2*K2+E2)*F2); 2)</f>
-      </c>
-      <c r="N2">
-        <f>L2-M2</f>
+        <f>K2-L2</f>
       </c>
     </row>
   </sheetData>
@@ -539,29 +533,46 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetData>
+    <row r="1"/>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <cols>
-    <col customWidth="true" max="1" min="1" width="19"/>
     <col customWidth="true" max="5" min="5" width="19"/>
     <col customWidth="true" max="4" min="4" width="65"/>
     <col customWidth="true" max="3" min="3" width="19"/>
     <col customWidth="true" max="2" min="2" width="19"/>
+    <col customWidth="true" max="1" min="1" width="19"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -585,7 +596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -610,7 +621,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <f>SUM(Трейдинг!N2:Трейдинг!N2)</f>
+        <f>SUM(Трейдинг!M2:Трейдинг!M2)</f>
       </c>
       <c r="B2">
         <f>ROUND((A2/100)*18; 2)</f>
@@ -622,10 +633,10 @@
     <row r="3"/>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
